--- a/biology/Zoologie/Gongxianosaurus/Gongxianosaurus.xlsx
+++ b/biology/Zoologie/Gongxianosaurus/Gongxianosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gongxianosaurus shibeiensis
 Gongxianosaurus (lézard de Giongxian) est un genre éteint de dinosaures placé à la transition entre les sauropodomorphes et les sauropodes. Il est ainsi classé selon les auteurs, soit comme un sauropodomorphe anchisaurien évolué, soit comme un sauropode très basal.
 Il a vécu au Jurassique inférieur (Toarcien) dans l'est de la Chine, où il a été découvert en 1998 dans le district de Shibei.
-Une seule espèce est rattachée au genre, Gongxianosaurus shibeiensis, décrite par He et ses collègues en 1998, puis  par Yaonan et Wang Changsheng en 2000[2].
+Une seule espèce est rattachée au genre, Gongxianosaurus shibeiensis, décrite par He et ses collègues en 1998, puis  par Yaonan et Wang Changsheng en 2000.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut découvert en 1998 par He, Wang, Liu, Zhou, Liu, Cai et Dai[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut découvert en 1998 par He, Wang, Liu, Zhou, Liu, Cai et Dai.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Localisation et restes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les restes de trois Giongxianosaurus ont été découverts, dont un juvénile[3]. Seule la partie post-crânienne de l'animal a été retrouvée. L'animal n'est connu que dans la province chinoise du Sichuan[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les restes de trois Giongxianosaurus ont été découverts, dont un juvénile. Seule la partie post-crânienne de l'animal a été retrouvée. L'animal n'est connu que dans la province chinoise du Sichuan.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'animal mesurait 14 mètres de long[4], avec de longues pattes avant représentant environ 70 à 75 % de la longueur des pattes arrière, ce qui indique une posture essentiellement quadrupède.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'animal mesurait 14 mètres de long, avec de longues pattes avant représentant environ 70 à 75 % de la longueur des pattes arrière, ce qui indique une posture essentiellement quadrupède.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce était un herbivore comme tous les autres sauropodes connus.
 Il se nourrissait principalement de plantes au ras du sol.
@@ -639,10 +659,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme de Blair McPhee et de ses collègues, établi en 2014[5], place Gongxianosaurus dans le clade des Anchisauria en groupe frère avec les sauropodes :
-Le cladogramme réalisé trois ans auparavant par Cecilia Apaldetti et ses collègues (2011) le considère comme un sauropode basal[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme de Blair McPhee et de ses collègues, établi en 2014, place Gongxianosaurus dans le clade des Anchisauria en groupe frère avec les sauropodes :
+Le cladogramme réalisé trois ans auparavant par Cecilia Apaldetti et ses collègues (2011) le considère comme un sauropode basal :
 </t>
         </is>
       </c>
